--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:58:57+00:00</t>
+    <t>2022-02-16T16:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T16:23:32+00:00</t>
+    <t>2022-02-16T17:04:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12819" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12819" uniqueCount="318">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T17:04:16+00:00</t>
+    <t>2022-02-16T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -893,15 +893,33 @@
     <t>authorization</t>
   </si>
   <si>
-    <t xml:space="preserve">RegulatedAuthorization
+    <t xml:space="preserve">RegulatedAuthorization {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/RegulatedAuthorization-uv-epi}
 </t>
+  </si>
+  <si>
+    <t>Regulatory approval, clearance or licencing related to a regulated product, treatment, facility or activity e.g. Market Authorization for a Medicinal Product</t>
+  </si>
+  <si>
+    <t>Regulatory approval, clearance or licencing related to a regulated product, treatment, facility or activity that is cited in a guidance, regulation, rule or legislative act. An example is Market Authorization relating to a Medicinal Product.</t>
+  </si>
+  <si>
+    <t>Entity. Role, or Act</t>
+  </si>
+  <si>
+    <t>administrative.medication</t>
   </si>
   <si>
     <t>medicinalProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicinalProductDefinition
+    <t xml:space="preserve">MedicinalProductDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi}
 </t>
+  </si>
+  <si>
+    <t>Detailed definition of a medicinal product</t>
+  </si>
+  <si>
+    <t>A medicinal product, being a substance or combination of substances that is intended to treat, prevent or diagnose a disease, or to restore, correct or modify physiological functions by exerting a pharmacological, immunological or metabolic action. This resource is intended to define and detail such products and their properties, for uses other than direct patient care (e.g. regulatory use, or drug catalogs).</t>
   </si>
   <si>
     <t>packagedProduct</t>
@@ -914,29 +932,72 @@
     <t>administrableProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">AdministrableProductDefinition
+    <t xml:space="preserve">Pharmaceutical Product
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AdministrableProductDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/AdministrableProductDefinition-uv-epi}
+</t>
+  </si>
+  <si>
+    <t>A medicinal product in the final form, suitable for administration - after any mixing of multiple components</t>
+  </si>
+  <si>
+    <t>A medicinal product in the final form which is suitable for administering to a patient (after any mixing of multiple components, dissolution etc. has been performed).</t>
+  </si>
+  <si>
+    <t>apd-1:RouteOfAdministration cannot be used when the 'formOf' product already uses MedicinalProductDefinition.route (and vice versa) {(AdministrableProductDefinition.routeOfAdministration.code.count() + AdministrableProductDefinition.formOf.resolve().route.count())  &lt; 2}
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>manItem</t>
   </si>
   <si>
-    <t xml:space="preserve">ManufacturedItemDefinition
+    <t xml:space="preserve">ManufacturedItemDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ManufacturedItemDefinition-uv-epi}
 </t>
+  </si>
+  <si>
+    <t>The definition and characteristics of a medicinal manufactured item, such as a tablet or capsule, as contained in a packaged medicinal product</t>
+  </si>
+  <si>
+    <t>The definition and characteristics of a medicinal manufactured item, such as a tablet or capsule, as contained in a packaged medicinal product.</t>
   </si>
   <si>
     <t>ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingredient
+    <t xml:space="preserve">Ingredient {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Ingredient-uv-epi}
 </t>
+  </si>
+  <si>
+    <t>An ingredient of a manufactured item or pharmaceutical product</t>
+  </si>
+  <si>
+    <t>An ingredient of a manufactured item or pharmaceutical product.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ing-1:If an ingredient is noted as an allergen (allergenicIndicator) then its substance should be a code. If the substance is a SubstanceDefinition, then the allegen information should be documented in that resource {(Ingredient.allergenicIndicator.where(value='true').count() + Ingredient.substance.code.reference.count())  &lt; 2}</t>
   </si>
   <si>
     <t>clinicalUse</t>
   </si>
   <si>
-    <t xml:space="preserve">ClinicalUseDefinition
+    <t xml:space="preserve">ClinicalUseDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-uv-epi}
 </t>
+  </si>
+  <si>
+    <t>A single issue - either an indication, contraindication, interaction or an undesirable effect for a medicinal product, medication, device or procedure</t>
+  </si>
+  <si>
+    <t>A single issue - either an indication, contraindication, interaction or an undesirable effect for a medicinal product, medication, device or procedure.</t>
+  </si>
+  <si>
+    <t>cud-1:Indication, Contraindication, Interaction, UndesirableEffect and Warning cannot be used in the same instance {(ClinicalUseDefinition.indication.count() + ClinicalUseDefinition.contraIndication.count() + ClinicalUseDefinition.interaction.count() + ClinicalUseDefinition.undesirableEffect.count() + ClinicalUseDefinition.warning.count())  &lt; 2}
+dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>clinical.general</t>
   </si>
   <si>
     <t>binary</t>
@@ -1270,7 +1331,7 @@
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1278,7 +1339,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="129.890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -14355,16 +14416,16 @@
         <v>74</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>278</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>192</v>
+        <v>279</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14427,19 +14488,19 @@
         <v>74</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
     </row>
     <row r="120">
@@ -17202,7 +17263,7 @@
         <v>172</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>74</v>
@@ -17883,16 +17944,16 @@
         <v>74</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -17955,19 +18016,19 @@
         <v>74</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152">
@@ -20730,7 +20791,7 @@
         <v>172</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>74</v>
@@ -21414,7 +21475,7 @@
         <v>85</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>192</v>
@@ -24258,7 +24319,7 @@
         <v>172</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>74</v>
@@ -24923,7 +24984,7 @@
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -24939,16 +25000,16 @@
         <v>74</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>192</v>
+        <v>292</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -25011,19 +25072,19 @@
         <v>74</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AL215" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
     </row>
     <row r="216">
@@ -27786,7 +27847,7 @@
         <v>172</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>74</v>
@@ -28467,16 +28528,16 @@
         <v>74</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>192</v>
+        <v>297</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>193</v>
+        <v>298</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -28539,19 +28600,19 @@
         <v>74</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AL247" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM247" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
     </row>
     <row r="248">
@@ -31314,7 +31375,7 @@
         <v>172</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C273" t="s" s="2">
         <v>74</v>
@@ -31995,16 +32056,16 @@
         <v>74</v>
       </c>
       <c r="I279" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -32067,19 +32128,19 @@
         <v>74</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>74</v>
+        <v>303</v>
       </c>
       <c r="AJ279" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AL279" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM279" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
     </row>
     <row r="280">
@@ -34842,7 +34903,7 @@
         <v>172</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C305" t="s" s="2">
         <v>74</v>
@@ -35523,16 +35584,16 @@
         <v>74</v>
       </c>
       <c r="I311" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>192</v>
+        <v>306</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>193</v>
+        <v>307</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -35595,19 +35656,19 @@
         <v>74</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>74</v>
+        <v>308</v>
       </c>
       <c r="AJ311" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AL311" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM311" t="s" s="2">
-        <v>74</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312">
@@ -38370,7 +38431,7 @@
         <v>172</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>74</v>
@@ -39054,7 +39115,7 @@
         <v>85</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="K343" t="s" s="2">
         <v>192</v>
@@ -41895,7 +41956,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -41918,19 +41979,19 @@
         <v>85</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>74</v>
@@ -41979,7 +42040,7 @@
         <v>74</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12819" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12819" uniqueCount="324">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:02:33+00:00</t>
+    <t>2022-02-16T18:21:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -886,8 +886,27 @@
     <t>organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization
+    <t xml:space="preserve">Organization {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi}
 </t>
+  </si>
+  <si>
+    <t>A grouping of people or organizations with a common purpose</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+  </si>
+  <si>
+    <t>(also see master files messages)</t>
+  </si>
+  <si>
+    <t>Organization(classCode=ORG, determinerCode=INST)</t>
+  </si>
+  <si>
+    <t>administrative.group</t>
   </si>
   <si>
     <t>authorization</t>
@@ -1364,7 +1383,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="67.23828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
@@ -10888,16 +10907,16 @@
         <v>74</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>276</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10960,19 +10979,19 @@
         <v>74</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88">
@@ -13735,7 +13754,7 @@
         <v>172</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>74</v>
@@ -14419,13 +14438,13 @@
         <v>74</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14494,13 +14513,13 @@
         <v>74</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120">
@@ -17263,7 +17282,7 @@
         <v>172</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>74</v>
@@ -17947,13 +17966,13 @@
         <v>74</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -18022,13 +18041,13 @@
         <v>74</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AL151" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM151" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="152">
@@ -20791,7 +20810,7 @@
         <v>172</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>74</v>
@@ -21475,7 +21494,7 @@
         <v>85</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>192</v>
@@ -24319,7 +24338,7 @@
         <v>172</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>74</v>
@@ -24984,7 +25003,7 @@
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -25003,13 +25022,13 @@
         <v>74</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -25072,19 +25091,19 @@
         <v>74</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AL215" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="216">
@@ -27847,7 +27866,7 @@
         <v>172</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>74</v>
@@ -28531,13 +28550,13 @@
         <v>74</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -28606,13 +28625,13 @@
         <v>74</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AL247" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM247" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="248">
@@ -31375,7 +31394,7 @@
         <v>172</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C273" t="s" s="2">
         <v>74</v>
@@ -32059,13 +32078,13 @@
         <v>74</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -32128,19 +32147,19 @@
         <v>74</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AJ279" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK279" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AL279" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM279" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="280">
@@ -34903,7 +34922,7 @@
         <v>172</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C305" t="s" s="2">
         <v>74</v>
@@ -35587,13 +35606,13 @@
         <v>74</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -35656,19 +35675,19 @@
         <v>74</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AJ311" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AL311" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM311" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="312">
@@ -38431,7 +38450,7 @@
         <v>172</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>74</v>
@@ -39115,7 +39134,7 @@
         <v>85</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K343" t="s" s="2">
         <v>192</v>
@@ -41956,7 +41975,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -41979,19 +41998,19 @@
         <v>85</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>74</v>
@@ -42040,7 +42059,7 @@
         <v>74</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12819" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12819" uniqueCount="326">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:21:09+00:00</t>
+    <t>2022-02-17T07:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -944,8 +944,14 @@
     <t>packagedProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">PackagedProductDefinition
+    <t xml:space="preserve">PackagedProductDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/PackagedProductDefinition-uv-epi}
 </t>
+  </si>
+  <si>
+    <t>A medically related item or items, in a container or package</t>
+  </si>
+  <si>
+    <t>A medically related item or items, in a container or package.</t>
   </si>
   <si>
     <t>administrableProduct</t>
@@ -21491,16 +21497,16 @@
         <v>74</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J183" t="s" s="2">
         <v>294</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>193</v>
+        <v>296</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -21563,19 +21569,19 @@
         <v>74</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM183" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
     </row>
     <row r="184">
@@ -24338,7 +24344,7 @@
         <v>172</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>74</v>
@@ -25003,7 +25009,7 @@
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -25022,13 +25028,13 @@
         <v>74</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -25091,7 +25097,7 @@
         <v>74</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>74</v>
@@ -27866,7 +27872,7 @@
         <v>172</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>74</v>
@@ -28550,13 +28556,13 @@
         <v>74</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -31394,7 +31400,7 @@
         <v>172</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C273" t="s" s="2">
         <v>74</v>
@@ -32078,13 +32084,13 @@
         <v>74</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -32147,7 +32153,7 @@
         <v>74</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AJ279" t="s" s="2">
         <v>74</v>
@@ -34922,7 +34928,7 @@
         <v>172</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C305" t="s" s="2">
         <v>74</v>
@@ -35606,13 +35612,13 @@
         <v>74</v>
       </c>
       <c r="J311" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -35675,7 +35681,7 @@
         <v>74</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AJ311" t="s" s="2">
         <v>74</v>
@@ -35687,7 +35693,7 @@
         <v>74</v>
       </c>
       <c r="AM311" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="312">
@@ -38450,7 +38456,7 @@
         <v>172</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>74</v>
@@ -39134,7 +39140,7 @@
         <v>85</v>
       </c>
       <c r="J343" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K343" t="s" s="2">
         <v>192</v>
@@ -41975,7 +41981,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -41998,19 +42004,19 @@
         <v>85</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>74</v>
@@ -42059,7 +42065,7 @@
         <v>74</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:42:42+00:00</t>
+    <t>2022-02-17T14:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1008,7 +1008,7 @@
     <t>clinicalUse</t>
   </si>
   <si>
-    <t xml:space="preserve">ClinicalUseDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-uv-epi}
+    <t xml:space="preserve">ClinicalUseDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-contraindication-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-indication-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-interaction-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-undesirableEffect-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-warning-uv-epi}
 </t>
   </si>
   <si>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -561,7 +561,7 @@
     <t>Bundle.entry</t>
   </si>
   <si>
-    <t>4</t>
+    <t>7</t>
   </si>
   <si>
     <t>Entry resource in the ePI bundle</t>
@@ -941,19 +941,6 @@
     <t>A medicinal product, being a substance or combination of substances that is intended to treat, prevent or diagnose a disease, or to restore, correct or modify physiological functions by exerting a pharmacological, immunological or metabolic action. This resource is intended to define and detail such products and their properties, for uses other than direct patient care (e.g. regulatory use, or drug catalogs).</t>
   </si>
   <si>
-    <t>packagedProduct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PackagedProductDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/PackagedProductDefinition-uv-epi}
-</t>
-  </si>
-  <si>
-    <t>A medically related item or items, in a container or package</t>
-  </si>
-  <si>
-    <t>A medically related item or items, in a container or package.</t>
-  </si>
-  <si>
     <t>administrableProduct</t>
   </si>
   <si>
@@ -1003,6 +990,19 @@
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ing-1:If an ingredient is noted as an allergen (allergenicIndicator) then its substance should be a code. If the substance is a SubstanceDefinition, then the allegen information should be documented in that resource {(Ingredient.allergenicIndicator.where(value='true').count() + Ingredient.substance.code.reference.count())  &lt; 2}</t>
+  </si>
+  <si>
+    <t>packagedProduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PackagedProductDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/PackagedProductDefinition-uv-epi}
+</t>
+  </si>
+  <si>
+    <t>A medically related item or items, in a container or package</t>
+  </si>
+  <si>
+    <t>A medically related item or items, in a container or package.</t>
   </si>
   <si>
     <t>clinicalUse</t>
@@ -3843,7 +3843,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>84</v>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>84</v>
@@ -10901,7 +10901,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>84</v>
@@ -14429,7 +14429,7 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F119" t="s" s="2">
         <v>84</v>
@@ -17957,7 +17957,7 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>84</v>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="D177" s="2"/>
       <c r="E177" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F177" t="s" s="2">
         <v>76</v>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
-        <v>74</v>
+        <v>294</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" t="s" s="2">
@@ -21500,13 +21500,13 @@
         <v>74</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" s="2"/>
@@ -21569,7 +21569,7 @@
         <v>74</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>74</v>
@@ -24344,14 +24344,14 @@
         <v>172</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F209" t="s" s="2">
         <v>76</v>
@@ -25009,7 +25009,7 @@
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -25028,13 +25028,13 @@
         <v>74</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -25097,7 +25097,7 @@
         <v>74</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="AJ215" t="s" s="2">
         <v>74</v>
@@ -27879,7 +27879,7 @@
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F241" t="s" s="2">
         <v>76</v>
@@ -28625,7 +28625,7 @@
         <v>74</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>74</v>
@@ -31400,7 +31400,7 @@
         <v>172</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C273" t="s" s="2">
         <v>74</v>
@@ -32084,13 +32084,13 @@
         <v>74</v>
       </c>
       <c r="J279" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -32153,7 +32153,7 @@
         <v>74</v>
       </c>
       <c r="AI279" t="s" s="2">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="AJ279" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1039,7 +1039,7 @@
 </t>
   </si>
   <si>
-    <t>Digital Signature</t>
+    <t>Digital Signature.</t>
   </si>
   <si>
     <t>Digital Signature - base64 encoded. XML-DSig or a JWT.</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12819" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13927" uniqueCount="330">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -581,7 +581,7 @@
   </si>
   <si>
     <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.exists() implies fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -1025,6 +1025,19 @@
     <t>clinical.general</t>
   </si>
   <si>
+    <t>substanceDefinition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubstanceDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/SubstanceDefinition-uv-epi}
+</t>
+  </si>
+  <si>
+    <t>The detailed description of a substance, typically at a level beyond what is used for prescribing</t>
+  </si>
+  <si>
+    <t>The detailed description of a substance, typically at a level beyond what is used for prescribing.</t>
+  </si>
+  <si>
     <t>binary</t>
   </si>
   <si>
@@ -1345,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM369"/>
+  <dimension ref="A1:AM401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -39137,16 +39150,16 @@
         <v>74</v>
       </c>
       <c r="I343" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J343" t="s" s="2">
         <v>319</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
@@ -39209,19 +39222,19 @@
         <v>74</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="AJ343" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="AL343" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM343" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
     </row>
     <row r="344">
@@ -41981,9 +41994,11 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B369" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B369" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="C369" t="s" s="2">
         <v>74</v>
       </c>
@@ -41992,7 +42007,7 @@
         <v>75</v>
       </c>
       <c r="F369" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G369" t="s" s="2">
         <v>74</v>
@@ -42004,20 +42019,16 @@
         <v>85</v>
       </c>
       <c r="J369" t="s" s="2">
-        <v>321</v>
+        <v>142</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M369" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N369" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M369" s="2"/>
+      <c r="N369" s="2"/>
       <c r="O369" t="s" s="2">
         <v>74</v>
       </c>
@@ -42065,30 +42076,3560 @@
         <v>74</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI369" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AJ369" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK369" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL369" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM369" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B370" s="2"/>
+      <c r="C370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D370" s="2"/>
+      <c r="E370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F370" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J370" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K370" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L370" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M370" s="2"/>
+      <c r="N370" s="2"/>
+      <c r="O370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P370" s="2"/>
+      <c r="Q370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE370" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF370" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG370" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK370" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL370" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM370" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B371" s="2"/>
+      <c r="C371" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D371" s="2"/>
+      <c r="E371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F371" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J371" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K371" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L371" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M371" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N371" s="2"/>
+      <c r="O371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P371" s="2"/>
+      <c r="Q371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE371" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF371" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG371" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI371" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK371" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL371" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM371" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B372" s="2"/>
+      <c r="C372" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D372" s="2"/>
+      <c r="E372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F372" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H372" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I372" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J372" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K372" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L372" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M372" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N372" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P372" s="2"/>
+      <c r="Q372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE372" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF372" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG372" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI372" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK372" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL372" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM372" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B373" s="2"/>
+      <c r="C373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D373" s="2"/>
+      <c r="E373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F373" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I373" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K373" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L373" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M373" s="2"/>
+      <c r="N373" s="2"/>
+      <c r="O373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P373" s="2"/>
+      <c r="Q373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE373" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF373" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG373" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI373" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AJ369" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK369" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL369" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM369" t="s" s="2">
+      <c r="AJ373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL373" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM373" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B374" s="2"/>
+      <c r="C374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D374" s="2"/>
+      <c r="E374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F374" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I374" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J374" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K374" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L374" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M374" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N374" s="2"/>
+      <c r="O374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P374" s="2"/>
+      <c r="Q374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE374" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF374" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG374" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI374" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL374" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM374" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B375" s="2"/>
+      <c r="C375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D375" s="2"/>
+      <c r="E375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F375" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I375" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J375" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K375" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L375" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M375" s="2"/>
+      <c r="N375" s="2"/>
+      <c r="O375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P375" s="2"/>
+      <c r="Q375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE375" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF375" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG375" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL375" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM375" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B376" s="2"/>
+      <c r="C376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D376" s="2"/>
+      <c r="E376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F376" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I376" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J376" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K376" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L376" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M376" s="2"/>
+      <c r="N376" s="2"/>
+      <c r="O376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P376" s="2"/>
+      <c r="Q376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE376" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF376" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG376" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH376" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AI376" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL376" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM376" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B377" s="2"/>
+      <c r="C377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D377" s="2"/>
+      <c r="E377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F377" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J377" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K377" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L377" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M377" s="2"/>
+      <c r="N377" s="2"/>
+      <c r="O377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P377" s="2"/>
+      <c r="Q377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE377" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF377" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG377" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK377" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL377" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM377" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B378" s="2"/>
+      <c r="C378" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D378" s="2"/>
+      <c r="E378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F378" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J378" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K378" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L378" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M378" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N378" s="2"/>
+      <c r="O378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P378" s="2"/>
+      <c r="Q378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE378" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF378" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG378" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI378" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK378" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL378" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM378" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B379" s="2"/>
+      <c r="C379" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D379" s="2"/>
+      <c r="E379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F379" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H379" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I379" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J379" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K379" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L379" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M379" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N379" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P379" s="2"/>
+      <c r="Q379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE379" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF379" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG379" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI379" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK379" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL379" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM379" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B380" s="2"/>
+      <c r="C380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D380" s="2"/>
+      <c r="E380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F380" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I380" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J380" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K380" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L380" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M380" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N380" s="2"/>
+      <c r="O380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P380" s="2"/>
+      <c r="Q380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W380" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="X380" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y380" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE380" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF380" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG380" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI380" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL380" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM380" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B381" s="2"/>
+      <c r="C381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D381" s="2"/>
+      <c r="E381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F381" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I381" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J381" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K381" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L381" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M381" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N381" s="2"/>
+      <c r="O381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P381" s="2"/>
+      <c r="Q381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE381" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AF381" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG381" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI381" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL381" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM381" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B382" s="2"/>
+      <c r="C382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D382" s="2"/>
+      <c r="E382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F382" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I382" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J382" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K382" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L382" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M382" s="2"/>
+      <c r="N382" s="2"/>
+      <c r="O382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P382" s="2"/>
+      <c r="Q382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE382" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF382" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG382" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH382" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AI382" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL382" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM382" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B383" s="2"/>
+      <c r="C383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D383" s="2"/>
+      <c r="E383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F383" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J383" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K383" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L383" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M383" s="2"/>
+      <c r="N383" s="2"/>
+      <c r="O383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P383" s="2"/>
+      <c r="Q383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE383" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF383" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG383" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK383" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL383" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM383" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B384" s="2"/>
+      <c r="C384" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D384" s="2"/>
+      <c r="E384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F384" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J384" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K384" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L384" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M384" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N384" s="2"/>
+      <c r="O384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P384" s="2"/>
+      <c r="Q384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE384" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF384" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG384" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI384" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK384" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL384" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM384" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B385" s="2"/>
+      <c r="C385" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D385" s="2"/>
+      <c r="E385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F385" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H385" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I385" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J385" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K385" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L385" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M385" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N385" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P385" s="2"/>
+      <c r="Q385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE385" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF385" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG385" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI385" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK385" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL385" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM385" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B386" s="2"/>
+      <c r="C386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D386" s="2"/>
+      <c r="E386" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F386" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I386" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J386" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K386" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L386" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M386" s="2"/>
+      <c r="N386" s="2"/>
+      <c r="O386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P386" s="2"/>
+      <c r="Q386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W386" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="X386" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y386" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Z386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE386" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF386" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG386" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI386" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL386" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM386" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B387" s="2"/>
+      <c r="C387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D387" s="2"/>
+      <c r="E387" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F387" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I387" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J387" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K387" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L387" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M387" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N387" s="2"/>
+      <c r="O387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P387" s="2"/>
+      <c r="Q387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE387" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF387" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG387" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI387" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL387" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM387" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B388" s="2"/>
+      <c r="C388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D388" s="2"/>
+      <c r="E388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F388" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I388" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J388" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K388" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L388" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M388" s="2"/>
+      <c r="N388" s="2"/>
+      <c r="O388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P388" s="2"/>
+      <c r="Q388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE388" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AF388" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG388" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI388" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL388" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM388" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B389" s="2"/>
+      <c r="C389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D389" s="2"/>
+      <c r="E389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F389" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I389" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J389" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K389" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L389" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M389" s="2"/>
+      <c r="N389" s="2"/>
+      <c r="O389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P389" s="2"/>
+      <c r="Q389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE389" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF389" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG389" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI389" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL389" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM389" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B390" s="2"/>
+      <c r="C390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D390" s="2"/>
+      <c r="E390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F390" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I390" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J390" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K390" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L390" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M390" s="2"/>
+      <c r="N390" s="2"/>
+      <c r="O390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P390" s="2"/>
+      <c r="Q390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE390" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF390" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG390" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI390" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL390" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM390" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B391" s="2"/>
+      <c r="C391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D391" s="2"/>
+      <c r="E391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F391" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I391" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J391" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K391" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L391" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M391" s="2"/>
+      <c r="N391" s="2"/>
+      <c r="O391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P391" s="2"/>
+      <c r="Q391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE391" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF391" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG391" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI391" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL391" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM391" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B392" s="2"/>
+      <c r="C392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D392" s="2"/>
+      <c r="E392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F392" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I392" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J392" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K392" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L392" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M392" s="2"/>
+      <c r="N392" s="2"/>
+      <c r="O392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P392" s="2"/>
+      <c r="Q392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE392" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF392" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG392" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH392" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AI392" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL392" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM392" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B393" s="2"/>
+      <c r="C393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D393" s="2"/>
+      <c r="E393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F393" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J393" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K393" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L393" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M393" s="2"/>
+      <c r="N393" s="2"/>
+      <c r="O393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P393" s="2"/>
+      <c r="Q393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE393" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF393" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG393" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK393" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL393" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM393" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B394" s="2"/>
+      <c r="C394" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="D394" s="2"/>
+      <c r="E394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F394" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J394" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K394" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L394" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M394" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N394" s="2"/>
+      <c r="O394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P394" s="2"/>
+      <c r="Q394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE394" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AF394" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG394" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI394" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK394" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL394" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM394" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B395" s="2"/>
+      <c r="C395" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="D395" s="2"/>
+      <c r="E395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H395" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="I395" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J395" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K395" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L395" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M395" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N395" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P395" s="2"/>
+      <c r="Q395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE395" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF395" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG395" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI395" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK395" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL395" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM395" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B396" s="2"/>
+      <c r="C396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D396" s="2"/>
+      <c r="E396" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F396" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I396" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J396" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K396" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L396" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M396" s="2"/>
+      <c r="N396" s="2"/>
+      <c r="O396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P396" s="2"/>
+      <c r="Q396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE396" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AF396" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG396" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI396" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL396" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM396" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B397" s="2"/>
+      <c r="C397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D397" s="2"/>
+      <c r="E397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F397" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I397" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J397" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K397" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L397" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M397" s="2"/>
+      <c r="N397" s="2"/>
+      <c r="O397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P397" s="2"/>
+      <c r="Q397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE397" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF397" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG397" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI397" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL397" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM397" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B398" s="2"/>
+      <c r="C398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D398" s="2"/>
+      <c r="E398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F398" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I398" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J398" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="K398" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L398" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M398" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="N398" s="2"/>
+      <c r="O398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P398" s="2"/>
+      <c r="Q398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE398" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AF398" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG398" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI398" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL398" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM398" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B399" s="2"/>
+      <c r="C399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D399" s="2"/>
+      <c r="E399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F399" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I399" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J399" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K399" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L399" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M399" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N399" s="2"/>
+      <c r="O399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P399" s="2"/>
+      <c r="Q399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE399" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AF399" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG399" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI399" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL399" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM399" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B400" s="2"/>
+      <c r="C400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D400" s="2"/>
+      <c r="E400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F400" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I400" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J400" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K400" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L400" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M400" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N400" s="2"/>
+      <c r="O400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P400" s="2"/>
+      <c r="Q400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE400" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AF400" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG400" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL400" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM400" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B401" s="2"/>
+      <c r="C401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D401" s="2"/>
+      <c r="E401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F401" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I401" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J401" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K401" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L401" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M401" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N401" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P401" s="2"/>
+      <c r="Q401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE401" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF401" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG401" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI401" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL401" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM401" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13927" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13927" uniqueCount="328">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -401,7 +401,7 @@
     <t>Indicates the purpose of a bundle - how it is intended to be used.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/bundle-type|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/bundle-type|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>FiveWs.class</t>
@@ -581,7 +581,7 @@
   </si>
   <si>
     <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
-bdl-8:fullUrl cannot be a version specific reference {fullUrl.exists() implies fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Bundle.entry.id</t>
@@ -667,7 +667,7 @@
     <t>Why an entry is in the result set - whether it's included as a match or because of an _include requirement, or to convey information or warning information about the search process.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/search-entry-mode|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/search-entry-mode|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Bundle.entry.search.score</t>
@@ -721,7 +721,7 @@
     <t>HTTP verbs (in the HTTP command line). See [HTTP rfc](https://tools.ietf.org/html/rfc7231) for details.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/http-verb|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/http-verb|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Bundle.entry.request.url</t>
@@ -916,7 +916,7 @@
 </t>
   </si>
   <si>
-    <t>Regulatory approval, clearance or licencing related to a regulated product, treatment, facility or activity e.g. Market Authorization for a Medicinal Product</t>
+    <t>Regulatory approval, clearance or licencing related to a regulated product, treatment, facility or activity that is cited in a guidance, regulation, rule or legislative act. An example is Market Authorization relating to a Medicinal Product</t>
   </si>
   <si>
     <t>Regulatory approval, clearance or licencing related to a regulated product, treatment, facility or activity that is cited in a guidance, regulation, rule or legislative act. An example is Market Authorization relating to a Medicinal Product.</t>
@@ -935,10 +935,10 @@
 </t>
   </si>
   <si>
-    <t>Detailed definition of a medicinal product</t>
+    <t>Detailed definition of a medicinal product, typically for uses other than direct patient care (e.g. regulatory use, drug catalogs)</t>
   </si>
   <si>
-    <t>A medicinal product, being a substance or combination of substances that is intended to treat, prevent or diagnose a disease, or to restore, correct or modify physiological functions by exerting a pharmacological, immunological or metabolic action. This resource is intended to define and detail such products and their properties, for uses other than direct patient care (e.g. regulatory use, or drug catalogs).</t>
+    <t>Detailed definition of a medicinal product, typically for uses other than direct patient care (e.g. regulatory use, drug catalogs).</t>
   </si>
   <si>
     <t>administrableProduct</t>
@@ -952,14 +952,10 @@
 </t>
   </si>
   <si>
-    <t>A medicinal product in the final form, suitable for administration - after any mixing of multiple components</t>
+    <t>A medicinal product in the final form which is suitable for administering to a patient (after any mixing of multiple components, dissolution etc. has been performed)</t>
   </si>
   <si>
     <t>A medicinal product in the final form which is suitable for administering to a patient (after any mixing of multiple components, dissolution etc. has been performed).</t>
-  </si>
-  <si>
-    <t>apd-1:RouteOfAdministration cannot be used when the 'formOf' product already uses MedicinalProductDefinition.route (and vice versa) {(AdministrableProductDefinition.routeOfAdministration.code.count() + AdministrableProductDefinition.formOf.resolve().route.count())  &lt; 2}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>manItem</t>
@@ -986,10 +982,6 @@
   </si>
   <si>
     <t>An ingredient of a manufactured item or pharmaceutical product.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ing-1:If an ingredient is noted as an allergen (allergenicIndicator) then its substance should be a code. If the substance is a SubstanceDefinition, then the allegen information should be documented in that resource {(Ingredient.allergenicIndicator.where(value='true').count() + Ingredient.substance.code.reference.count())  &lt; 2}</t>
   </si>
   <si>
     <t>packagedProduct</t>
@@ -1377,7 +1369,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.39453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="214.9375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1391,7 +1383,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -21582,7 +21574,7 @@
         <v>74</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>74</v>
@@ -24357,7 +24349,7 @@
         <v>172</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C209" t="s" s="2">
         <v>74</v>
@@ -25041,13 +25033,13 @@
         <v>74</v>
       </c>
       <c r="J215" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K215" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K215" t="s" s="2">
+      <c r="L215" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L215" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -27885,7 +27877,7 @@
         <v>172</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C241" t="s" s="2">
         <v>74</v>
@@ -28569,13 +28561,13 @@
         <v>74</v>
       </c>
       <c r="J247" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K247" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K247" t="s" s="2">
+      <c r="L247" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L247" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" s="2"/>
@@ -28638,7 +28630,7 @@
         <v>74</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>74</v>
@@ -31413,7 +31405,7 @@
         <v>172</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C273" t="s" s="2">
         <v>74</v>
@@ -32097,13 +32089,13 @@
         <v>74</v>
       </c>
       <c r="J279" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K279" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="K279" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" s="2"/>
@@ -34941,7 +34933,7 @@
         <v>172</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C305" t="s" s="2">
         <v>74</v>
@@ -35625,13 +35617,13 @@
         <v>74</v>
       </c>
       <c r="J311" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K311" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L311" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="K311" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="L311" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -35694,7 +35686,7 @@
         <v>74</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AJ311" t="s" s="2">
         <v>74</v>
@@ -35706,7 +35698,7 @@
         <v>74</v>
       </c>
       <c r="AM311" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="312">
@@ -38469,7 +38461,7 @@
         <v>172</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>74</v>
@@ -39153,13 +39145,13 @@
         <v>74</v>
       </c>
       <c r="J343" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K343" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L343" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="K343" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L343" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" s="2"/>
@@ -41997,7 +41989,7 @@
         <v>172</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C369" t="s" s="2">
         <v>74</v>
@@ -42681,7 +42673,7 @@
         <v>85</v>
       </c>
       <c r="J375" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K375" t="s" s="2">
         <v>192</v>
@@ -45522,7 +45514,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s" s="2">
@@ -45545,19 +45537,19 @@
         <v>85</v>
       </c>
       <c r="J401" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="K401" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L401" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="K401" t="s" s="2">
+      <c r="M401" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L401" t="s" s="2">
+      <c r="N401" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M401" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N401" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O401" t="s" s="2">
         <v>74</v>
@@ -45606,7 +45598,7 @@
         <v>74</v>
       </c>
       <c r="AE401" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AF401" t="s" s="2">
         <v>75</v>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -570,8 +570,8 @@
     <t>Must contain the ePI Composition as the first entry (only a single Composition resource instance may be included).  Additional constraints are specified in the ePI Composition profile.</t>
   </si>
   <si>
-    <t>type:resource}
-profile:resource}</t>
+    <t xml:space="preserve">type:resource}
+</t>
   </si>
   <si>
     <t>open</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1356,44 +1356,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.68359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.8828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="214.9375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="168.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="31.1328125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="67.23828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.97265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="42.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Bundle-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Bundle-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,13 +72,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile represents the constraints applied to the Bundle resource by the Electronic Product Information (ePI) FHIR Implementation Guide.</t>
+    <t>A medicine’s product information is a pivotal source of regulated and scientifically validated information that assists healthcare professionals in prescribing and dispensing the medicine and informs consumers about its safe and effective use. This profile represents the constraints applied to the Bundle resource used in the Electronic Product Information (ePI) FHIR Implementation Guide.</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>An electronic product information (ePI) is authorised, statutory product information for medicines (i.e. summary of product characteristics, package leaflet and labelling) in a semi-structured format created using the common EU electronic standard.</t>
+    <t>This profile represents the constraints applied to the Bundle resource used to create an Electronic Product Information (ePI) document.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -246,10 +246,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Electronic Product Information Bundle</t>
+    <t>Electronic Product Information Bundle Document</t>
   </si>
   <si>
-    <t>Electronic Product Information Bundle. 
+    <t>Electronic Product Information Bundle Document. 
 A container for a collection of resources in the ePI document.</t>
   </si>
   <si>
@@ -852,7 +852,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Composition-uv-epi}
+    <t xml:space="preserve">Composition {http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Composition-uv-epi}
 </t>
   </si>
   <si>
@@ -860,8 +860,8 @@
   </si>
   <si>
     <t>Electronic Product Information composition. 
-A composition is a set of healthcare-related information that is assembled together into a single logical document that provides a single coherent statement of meaning, establishes its own context and that has clinical attestation with regard to who is making the statement. 
-While a Composition defines the structure, it does not actually contain the content: rather the full content of a document is contained in a Bundle, of which the Composition is the first resource contained.</t>
+A composition is a set of source of regulated and scientifically validated information that assists healthcare professionals in prescribing and dispensing the medicine and informs consumers about its safe and effective use. 
+While a Composition defines the structure and content of the ePI's narrative text, it does not contain the full content of an ePI document. The Bundle, of which the Composition is the first resource contained, is the container for the full  content of an ePI.</t>
   </si>
   <si>
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
@@ -883,7 +883,7 @@
     <t>organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Organization-uv-epi}
+    <t xml:space="preserve">Organization {http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Organization-uv-epi}
 </t>
   </si>
   <si>
@@ -909,7 +909,7 @@
     <t>authorization</t>
   </si>
   <si>
-    <t xml:space="preserve">RegulatedAuthorization {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/RegulatedAuthorization-uv-epi}
+    <t xml:space="preserve">RegulatedAuthorization {http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/RegulatedAuthorization-uv-epi}
 </t>
   </si>
   <si>
@@ -928,7 +928,7 @@
     <t>medicinalProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">MedicinalProductDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi}
+    <t xml:space="preserve">MedicinalProductDefinition {http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/MedicinalProductDefinition-uv-epi}
 </t>
   </si>
   <si>
@@ -945,7 +945,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">AdministrableProductDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/AdministrableProductDefinition-uv-epi}
+    <t xml:space="preserve">AdministrableProductDefinition {http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/AdministrableProductDefinition-uv-epi}
 </t>
   </si>
   <si>
@@ -958,7 +958,7 @@
     <t>manItem</t>
   </si>
   <si>
-    <t xml:space="preserve">ManufacturedItemDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ManufacturedItemDefinition-uv-epi}
+    <t xml:space="preserve">ManufacturedItemDefinition {http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ManufacturedItemDefinition-uv-epi}
 </t>
   </si>
   <si>
@@ -971,7 +971,7 @@
     <t>ingredient</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingredient {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/Ingredient-uv-epi}
+    <t xml:space="preserve">Ingredient {http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/Ingredient-uv-epi}
 </t>
   </si>
   <si>
@@ -984,7 +984,7 @@
     <t>packagedProduct</t>
   </si>
   <si>
-    <t xml:space="preserve">PackagedProductDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/PackagedProductDefinition-uv-epi}
+    <t xml:space="preserve">PackagedProductDefinition {http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/PackagedProductDefinition-uv-epi}
 </t>
   </si>
   <si>
@@ -997,7 +997,7 @@
     <t>clinicalUse</t>
   </si>
   <si>
-    <t xml:space="preserve">ClinicalUseDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-contraindication-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-indication-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-interaction-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-undesirableEffect-uv-epi|http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ClinicalUseDefinition-warning-uv-epi}
+    <t xml:space="preserve">ClinicalUseDefinition {http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ClinicalUseDefinition-contraindication-uv-epi|http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ClinicalUseDefinition-indication-uv-epi|http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ClinicalUseDefinition-interaction-uv-epi|http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ClinicalUseDefinition-undesirableEffect-uv-epi|http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ClinicalUseDefinition-warning-uv-epi}
 </t>
   </si>
   <si>
@@ -1017,7 +1017,7 @@
     <t>substanceDefinition</t>
   </si>
   <si>
-    <t xml:space="preserve">SubstanceDefinition {http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/SubstanceDefinition-uv-epi}
+    <t xml:space="preserve">SubstanceDefinition {http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/SubstanceDefinition-uv-epi}
 </t>
   </si>
   <si>

--- a/StructureDefinition-Bundle-uv-epi.xlsx
+++ b/StructureDefinition-Bundle-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
